--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H2">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N2">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q2">
-        <v>9.697086115343001</v>
+        <v>3.899323187308</v>
       </c>
       <c r="R2">
-        <v>87.273775038087</v>
+        <v>35.093908685772</v>
       </c>
       <c r="S2">
-        <v>0.0003557892905293035</v>
+        <v>0.0001148801622841347</v>
       </c>
       <c r="T2">
-        <v>0.0003557892905293035</v>
+        <v>0.0001148801622841347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H3">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I3">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J3">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>19.768727</v>
       </c>
       <c r="N3">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q3">
-        <v>14.116709569611</v>
+        <v>2.731168247412</v>
       </c>
       <c r="R3">
-        <v>127.050386126499</v>
+        <v>24.580514226708</v>
       </c>
       <c r="S3">
-        <v>0.0005179467339609648</v>
+        <v>8.046448996821335E-05</v>
       </c>
       <c r="T3">
-        <v>0.000517946733960965</v>
+        <v>8.046448996821336E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H4">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I4">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J4">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N4">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O4">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P4">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q4">
-        <v>18.537143519434</v>
+        <v>3.586392248728</v>
       </c>
       <c r="R4">
-        <v>166.834291674906</v>
+        <v>32.277530238552</v>
       </c>
       <c r="S4">
-        <v>0.0006801339147420793</v>
+        <v>0.0001056607271973458</v>
       </c>
       <c r="T4">
-        <v>0.0006801339147420794</v>
+        <v>0.0001056607271973458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1360.232666</v>
       </c>
       <c r="I5">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J5">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N5">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O5">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P5">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q5">
-        <v>6157.131400300611</v>
+        <v>12797.09597524435</v>
       </c>
       <c r="R5">
-        <v>55414.1826027055</v>
+        <v>115173.8637771992</v>
       </c>
       <c r="S5">
-        <v>0.2259071835138761</v>
+        <v>0.3770224707679753</v>
       </c>
       <c r="T5">
-        <v>0.2259071835138761</v>
+        <v>0.3770224707679753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I6">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J6">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>19.768727</v>
       </c>
       <c r="N6">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O6">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P6">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q6">
-        <v>8963.356076878727</v>
+        <v>8963.356076878725</v>
       </c>
       <c r="R6">
-        <v>80670.20469190856</v>
+        <v>80670.20469190853</v>
       </c>
       <c r="S6">
-        <v>0.3288684932176042</v>
+        <v>0.2640744947928262</v>
       </c>
       <c r="T6">
-        <v>0.3288684932176043</v>
+        <v>0.2640744947928262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I7">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J7">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N7">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O7">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P7">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q7">
         <v>11770.09537481548</v>
@@ -880,10 +880,10 @@
         <v>105930.8583733393</v>
       </c>
       <c r="S7">
-        <v>0.4318486845488543</v>
+        <v>0.3467654261538753</v>
       </c>
       <c r="T7">
-        <v>0.4318486845488544</v>
+        <v>0.3467654261538752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H8">
         <v>16.298357</v>
       </c>
       <c r="I8">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J8">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N8">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O8">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P8">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q8">
-        <v>73.77497112542457</v>
+        <v>153.3352668122115</v>
       </c>
       <c r="R8">
-        <v>663.9747401288211</v>
+        <v>1380.017401309903</v>
       </c>
       <c r="S8">
-        <v>0.002706828043323633</v>
+        <v>0.004517496880639189</v>
       </c>
       <c r="T8">
-        <v>0.002706828043323633</v>
+        <v>0.004517496880639189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H9">
         <v>16.298357</v>
       </c>
       <c r="I9">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J9">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,13 +989,13 @@
         <v>19.768727</v>
       </c>
       <c r="N9">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O9">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P9">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q9">
         <v>107.3992566938463</v>
@@ -1004,10 +1004,10 @@
         <v>966.5933102446171</v>
       </c>
       <c r="S9">
-        <v>0.003940514180029693</v>
+        <v>0.003164150147477876</v>
       </c>
       <c r="T9">
-        <v>0.003940514180029693</v>
+        <v>0.003164150147477876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H10">
         <v>16.298357</v>
       </c>
       <c r="I10">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J10">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N10">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O10">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P10">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q10">
         <v>141.0297084739998</v>
@@ -1066,10 +1066,10 @@
         <v>1269.267376265998</v>
       </c>
       <c r="S10">
-        <v>0.00517442655707962</v>
+        <v>0.004154955877756429</v>
       </c>
       <c r="T10">
-        <v>0.00517442655707962</v>
+        <v>0.004154955877756428</v>
       </c>
     </row>
   </sheetData>
